--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -57,13 +57,13 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>loginAndLogoutTest2</t>
   </si>
   <si>
     <t>To check whether the login and logout failed</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>username</t>
@@ -1069,8 +1069,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1113,24 +1113,24 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="31.6" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="3" ht="31.6" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="5" ht="31.6" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
